--- a/v3/Testing_v3.xlsx
+++ b/v3/Testing_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs02.opaltelecom.com\IRLOfflineFiles$\eric.diep\Documents\GitHub\Team-Infinite\v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoriadudley\Desktop\Team-Infinite\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>Test group 1</t>
   </si>
@@ -209,24 +209,12 @@
     <t>Test for number of exchanges</t>
   </si>
   <si>
-    <t>Exchange AB ID first input</t>
-  </si>
-  <si>
-    <t>Exchange AB ID second input</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Exchange A: X</t>
-  </si>
-  <si>
-    <t>Exchange A: Y</t>
-  </si>
-  <si>
     <t>Exchange AB where [AB] is the exchange number</t>
   </si>
   <si>
@@ -243,6 +231,9 @@
   </si>
   <si>
     <t>ex:0:0 at coordinates [10,15] and ex:0:1 at coordinates [5,5], Output ex:0:1</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -299,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -874,6 +865,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -881,7 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -939,45 +967,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1013,6 +1002,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1022,12 +1025,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1035,67 +1070,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1432,70 +1407,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E32" zoomScale="99" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="74.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="47" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="46"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1526,11 +1501,11 @@
       <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="61"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1579,7 +1554,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1622,7 +1597,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1665,7 +1640,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -1708,7 +1683,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1.2</v>
       </c>
@@ -1757,7 +1732,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1800,7 +1775,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1843,7 +1818,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1886,7 +1861,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1929,7 +1904,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1972,7 +1947,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2015,7 +1990,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1.3</v>
       </c>
@@ -2064,7 +2039,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2107,7 +2082,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2150,7 +2125,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2193,7 +2168,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2236,7 +2211,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2279,7 +2254,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2322,7 +2297,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2365,7 +2340,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="16" t="s">
         <v>32</v>
@@ -2410,7 +2385,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2453,7 +2428,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2496,7 +2471,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2539,7 +2514,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -2582,7 +2557,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2625,7 +2600,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -2668,7 +2643,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2711,7 +2686,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>1.4</v>
       </c>
@@ -2760,7 +2735,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16" t="s">
@@ -2805,19 +2780,19 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="43" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -2832,20 +2807,20 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="37"/>
-      <c r="N37" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="O37" s="47" t="s">
+      <c r="N37" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="P37" s="39" t="s">
+      <c r="P37" s="60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="46"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="66"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="4" t="s">
         <v>8</v>
       </c>
@@ -2876,11 +2851,11 @@
       <c r="M38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="40"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="61"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>2.1</v>
       </c>
@@ -2929,7 +2904,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -2963,19 +2938,19 @@
       <c r="M40" s="18">
         <v>5</v>
       </c>
-      <c r="N40" s="54" t="s">
+      <c r="N40" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="O40" s="54"/>
+      <c r="O40" s="41"/>
       <c r="P40" s="13" t="str">
         <f t="shared" ref="P40:P41" si="1">IF(O40=N40,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="57"/>
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="32">
         <v>0</v>
       </c>
@@ -3006,24 +2981,24 @@
       <c r="M41" s="32">
         <v>0</v>
       </c>
-      <c r="N41" s="58" t="s">
+      <c r="N41" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="O41" s="58"/>
-      <c r="P41" s="64" t="str">
+      <c r="O41" s="45"/>
+      <c r="P41" s="51" t="str">
         <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
-      <c r="Q41" s="52"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61">
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="18">
@@ -3060,12 +3035,12 @@
         <v>43</v>
       </c>
       <c r="O42" s="12"/>
-      <c r="P42" s="66" t="str">
+      <c r="P42" s="53" t="str">
         <f>IF(O42=N42,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
@@ -3099,19 +3074,19 @@
       <c r="M43" s="18">
         <v>100000</v>
       </c>
-      <c r="N43" s="53" t="s">
+      <c r="N43" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="53"/>
+      <c r="O43" s="40"/>
       <c r="P43" s="38" t="str">
         <f t="shared" ref="P43:P44" si="2">IF(O43=N43,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57" t="s">
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="32">
@@ -3144,16 +3119,16 @@
       <c r="M44" s="32">
         <v>5</v>
       </c>
-      <c r="N44" s="58" t="s">
+      <c r="N44" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="58"/>
-      <c r="P44" s="64" t="str">
+      <c r="O44" s="45"/>
+      <c r="P44" s="51" t="str">
         <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>2.2999999999999998</v>
       </c>
@@ -3197,12 +3172,12 @@
         <v>46</v>
       </c>
       <c r="O45" s="24"/>
-      <c r="P45" s="65" t="str">
+      <c r="P45" s="52" t="str">
         <f t="shared" ref="P45:P48" si="3">IF(O45=N45,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>2.4</v>
       </c>
@@ -3251,11 +3226,11 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="59">
+      <c r="D47" s="46">
         <v>20</v>
       </c>
       <c r="E47" s="23">
@@ -3285,16 +3260,16 @@
       <c r="M47" s="23">
         <v>0</v>
       </c>
-      <c r="N47" s="58" t="s">
+      <c r="N47" s="45" t="s">
         <v>58</v>
       </c>
       <c r="O47" s="24"/>
-      <c r="P47" s="67" t="str">
+      <c r="P47" s="54" t="str">
         <f t="shared" si="3"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>2.5</v>
       </c>
@@ -3343,50 +3318,50 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="O53" s="47" t="s">
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="P53" s="39" t="s">
+      <c r="P53" s="60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="46"/>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="66"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="4" t="s">
         <v>8</v>
       </c>
@@ -3417,11 +3392,11 @@
       <c r="M54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="40"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="61"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>3.1</v>
       </c>
@@ -3429,7 +3404,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" s="17">
         <v>20</v>
@@ -3462,190 +3437,133 @@
         <v>5</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="13" t="str">
-        <f>IF(O55=N59,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17">
-        <v>20</v>
-      </c>
-      <c r="E56" s="18">
-        <v>20</v>
-      </c>
-      <c r="F56" s="18">
-        <v>0</v>
-      </c>
-      <c r="G56" s="18">
-        <v>0</v>
-      </c>
-      <c r="H56" s="18">
-        <v>10</v>
-      </c>
-      <c r="I56" s="18">
+        <f>IF(O55=N57,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="56"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="57">
+        <v>20</v>
+      </c>
+      <c r="E56" s="32">
+        <v>20</v>
+      </c>
+      <c r="F56" s="32">
+        <v>0</v>
+      </c>
+      <c r="G56" s="32">
+        <v>0</v>
+      </c>
+      <c r="H56" s="32">
+        <v>10</v>
+      </c>
+      <c r="I56" s="32">
         <v>15</v>
       </c>
-      <c r="J56" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="K56" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="L56" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="M56" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="13" t="str">
-        <f t="shared" ref="P56:P60" si="4">IF(O56=N56,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="76"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="13" t="str">
+      <c r="J56" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="M56" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="O56" s="77"/>
+      <c r="P56" s="78" t="str">
+        <f t="shared" ref="P56:P58" si="4">IF(O56=N56,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="26">
+        <v>99</v>
+      </c>
+      <c r="E57" s="26">
+        <v>99</v>
+      </c>
+      <c r="F57" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="O57" s="27"/>
+      <c r="P57" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="18">
+        <v>100</v>
+      </c>
+      <c r="E58" s="18">
+        <v>100</v>
+      </c>
+      <c r="F58" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="H58" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O58" s="12"/>
       <c r="P58" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="18">
-        <v>99</v>
-      </c>
-      <c r="E59" s="18">
-        <v>99</v>
-      </c>
-      <c r="F59" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I59" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O59" s="12"/>
-      <c r="P59" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="18">
-        <v>100</v>
-      </c>
-      <c r="E60" s="18">
-        <v>100</v>
-      </c>
-      <c r="F60" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I60" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
@@ -3659,37 +3577,36 @@
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
-  <conditionalFormatting sqref="P5:P33 P42 P45:P48">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+  <conditionalFormatting sqref="P5:P33 P42 P45:P48 P55:P58">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="22" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:P41">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:P44">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",P43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P55:P60">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",P55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
